--- a/StructureDefinition-hiv-acutal-recency-test-result.xlsx
+++ b/StructureDefinition-hiv-acutal-recency-test-result.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-22T18:40:24+00:00</t>
+    <t>2022-08-17T09:42:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1737,39 +1737,39 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="67.91015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="63.70703125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-hiv-acutal-recency-test-result.xlsx
+++ b/StructureDefinition-hiv-acutal-recency-test-result.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="450">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-17T09:42:33+00:00</t>
+    <t>2022-09-13T13:24:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -296,7 +296,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -859,6 +859,10 @@
   </si>
   <si>
     <t>Observation.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Actual result</t>
@@ -4398,19 +4402,19 @@
         <v>92</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>93</v>
+        <v>270</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>81</v>
@@ -4447,14 +4451,14 @@
         <v>81</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>269</v>
@@ -4466,7 +4470,7 @@
         <v>91</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>103</v>
@@ -4475,19 +4479,19 @@
         <v>81</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24">
@@ -4495,7 +4499,7 @@
         <v>269</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>81</v>
@@ -4517,19 +4521,19 @@
         <v>92</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>93</v>
+        <v>270</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>81</v>
@@ -4587,7 +4591,7 @@
         <v>91</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>103</v>
@@ -4596,24 +4600,24 @@
         <v>81</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4639,16 +4643,16 @@
         <v>189</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>81</v>
@@ -4673,13 +4677,13 @@
         <v>81</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>81</v>
@@ -4697,7 +4701,7 @@
         <v>81</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>79</v>
@@ -4706,7 +4710,7 @@
         <v>91</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>103</v>
@@ -4721,7 +4725,7 @@
         <v>134</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
@@ -4732,11 +4736,11 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4758,16 +4762,16 @@
         <v>189</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>81</v>
@@ -4792,13 +4796,13 @@
         <v>81</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>81</v>
@@ -4816,7 +4820,7 @@
         <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>79</v>
@@ -4834,24 +4838,24 @@
         <v>81</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4874,19 +4878,19 @@
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>81</v>
@@ -4935,7 +4939,7 @@
         <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>79</v>
@@ -4956,10 +4960,10 @@
         <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
@@ -4970,7 +4974,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4996,13 +5000,13 @@
         <v>189</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5031,10 +5035,10 @@
         <v>205</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>81</v>
@@ -5052,7 +5056,7 @@
         <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>79</v>
@@ -5070,24 +5074,24 @@
         <v>81</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5113,16 +5117,16 @@
         <v>189</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>81</v>
@@ -5150,10 +5154,10 @@
         <v>205</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>81</v>
@@ -5171,7 +5175,7 @@
         <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>79</v>
@@ -5192,10 +5196,10 @@
         <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
@@ -5206,7 +5210,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5229,16 +5233,16 @@
         <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5288,7 +5292,7 @@
         <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>79</v>
@@ -5306,24 +5310,24 @@
         <v>81</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5346,16 +5350,16 @@
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5405,7 +5409,7 @@
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>79</v>
@@ -5423,24 +5427,24 @@
         <v>81</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5463,19 +5467,19 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>81</v>
@@ -5524,7 +5528,7 @@
         <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>79</v>
@@ -5536,7 +5540,7 @@
         <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>81</v>
@@ -5545,10 +5549,10 @@
         <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
@@ -5559,7 +5563,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5582,13 +5586,13 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>93</v>
+        <v>270</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5639,7 +5643,7 @@
         <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
@@ -5663,7 +5667,7 @@
         <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -5674,7 +5678,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5703,7 +5707,7 @@
         <v>138</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>140</v>
@@ -5756,7 +5760,7 @@
         <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
@@ -5780,7 +5784,7 @@
         <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -5791,11 +5795,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5817,10 +5821,10 @@
         <v>137</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>140</v>
@@ -5875,7 +5879,7 @@
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
@@ -5910,7 +5914,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5933,13 +5937,13 @@
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5990,7 +5994,7 @@
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -5999,7 +6003,7 @@
         <v>91</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>103</v>
@@ -6011,10 +6015,10 @@
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -6025,7 +6029,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6048,13 +6052,13 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6105,7 +6109,7 @@
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -6114,7 +6118,7 @@
         <v>91</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>103</v>
@@ -6126,10 +6130,10 @@
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6140,7 +6144,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6166,16 +6170,16 @@
         <v>189</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>81</v>
@@ -6203,10 +6207,10 @@
         <v>115</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>81</v>
@@ -6224,7 +6228,7 @@
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
@@ -6242,13 +6246,13 @@
         <v>81</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -6259,7 +6263,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6285,16 +6289,16 @@
         <v>189</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>81</v>
@@ -6322,10 +6326,10 @@
         <v>205</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>81</v>
@@ -6343,7 +6347,7 @@
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
@@ -6361,13 +6365,13 @@
         <v>81</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -6378,7 +6382,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6401,17 +6405,17 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>81</v>
@@ -6460,7 +6464,7 @@
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>79</v>
@@ -6484,7 +6488,7 @@
         <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6495,7 +6499,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6518,13 +6522,13 @@
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>93</v>
+        <v>270</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6575,7 +6579,7 @@
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
@@ -6596,10 +6600,10 @@
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -6610,7 +6614,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6633,16 +6637,16 @@
         <v>92</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6692,7 +6696,7 @@
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
@@ -6713,10 +6717,10 @@
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -6727,7 +6731,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6750,16 +6754,16 @@
         <v>92</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6809,7 +6813,7 @@
         <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
@@ -6830,10 +6834,10 @@
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -6844,7 +6848,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6867,19 +6871,19 @@
         <v>92</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>81</v>
@@ -6928,7 +6932,7 @@
         <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
@@ -6949,10 +6953,10 @@
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -6963,7 +6967,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6986,13 +6990,13 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>93</v>
+        <v>270</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7043,7 +7047,7 @@
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
@@ -7067,7 +7071,7 @@
         <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7078,7 +7082,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7107,7 +7111,7 @@
         <v>138</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>140</v>
@@ -7160,7 +7164,7 @@
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7184,7 +7188,7 @@
         <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7195,11 +7199,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7221,10 +7225,10 @@
         <v>137</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>140</v>
@@ -7279,7 +7283,7 @@
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>79</v>
@@ -7314,7 +7318,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7340,13 +7344,13 @@
         <v>189</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>203</v>
@@ -7398,7 +7402,7 @@
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>91</v>
@@ -7416,7 +7420,7 @@
         <v>81</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>210</v>
@@ -7433,7 +7437,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7456,19 +7460,19 @@
         <v>92</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>81</v>
@@ -7517,7 +7521,7 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
@@ -7535,24 +7539,24 @@
         <v>81</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7578,16 +7582,16 @@
         <v>189</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>81</v>
@@ -7612,13 +7616,13 @@
         <v>81</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>81</v>
@@ -7636,7 +7640,7 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
@@ -7645,7 +7649,7 @@
         <v>91</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>103</v>
@@ -7660,7 +7664,7 @@
         <v>134</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
@@ -7671,11 +7675,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7697,16 +7701,16 @@
         <v>189</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>81</v>
@@ -7731,13 +7735,13 @@
         <v>81</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>81</v>
@@ -7755,7 +7759,7 @@
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
@@ -7773,24 +7777,24 @@
         <v>81</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7816,16 +7820,16 @@
         <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>81</v>
@@ -7874,7 +7878,7 @@
         <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
@@ -7895,10 +7899,10 @@
         <v>81</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>

--- a/StructureDefinition-hiv-acutal-recency-test-result.xlsx
+++ b/StructureDefinition-hiv-acutal-recency-test-result.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-13T13:24:33+00:00</t>
+    <t>2022-09-14T08:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-acutal-recency-test-result.xlsx
+++ b/StructureDefinition-hiv-acutal-recency-test-result.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T08:32:49+00:00</t>
+    <t>2022-09-14T08:40:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-acutal-recency-test-result.xlsx
+++ b/StructureDefinition-hiv-acutal-recency-test-result.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T08:40:35+00:00</t>
+    <t>2022-09-14T09:10:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-acutal-recency-test-result.xlsx
+++ b/StructureDefinition-hiv-acutal-recency-test-result.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:10:35+00:00</t>
+    <t>2022-09-16T12:02:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-acutal-recency-test-result.xlsx
+++ b/StructureDefinition-hiv-acutal-recency-test-result.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T12:02:49+00:00</t>
+    <t>2022-09-19T10:13:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-acutal-recency-test-result.xlsx
+++ b/StructureDefinition-hiv-acutal-recency-test-result.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T10:13:53+00:00</t>
+    <t>2022-09-19T11:28:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-acutal-recency-test-result.xlsx
+++ b/StructureDefinition-hiv-acutal-recency-test-result.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:28:39+00:00</t>
+    <t>2022-09-19T11:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-acutal-recency-test-result.xlsx
+++ b/StructureDefinition-hiv-acutal-recency-test-result.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:39:45+00:00</t>
+    <t>2022-09-19T11:47:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-acutal-recency-test-result.xlsx
+++ b/StructureDefinition-hiv-acutal-recency-test-result.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:47:22+00:00</t>
+    <t>2022-10-06T11:53:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-acutal-recency-test-result.xlsx
+++ b/StructureDefinition-hiv-acutal-recency-test-result.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-06T11:53:08+00:00</t>
+    <t>2022-10-06T13:57:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-acutal-recency-test-result.xlsx
+++ b/StructureDefinition-hiv-acutal-recency-test-result.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-06T13:57:21+00:00</t>
+    <t>2022-10-06T14:49:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
